--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,28 +11,19 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,20 +33,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>к доплате 16,94 руб</t>
-  </si>
-  <si>
-    <t>к доплате 15,33 руб</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,24 +82,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -110,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,19 +126,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -165,20 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,41 +158,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -283,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,10 +268,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -526,327 +477,253 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43162</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A2" s="12">
+        <v>43451</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1097</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43261</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="13">
+        <v>1559</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="12">
+        <v>43506</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1353</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="13">
+        <v>1801</v>
+      </c>
+      <c r="D3" s="13">
         <f>C3-C2</f>
-        <v>256</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="6">
+        <v>242</v>
+      </c>
+      <c r="E3" s="14">
+        <v>4.57</v>
+      </c>
+      <c r="F3" s="14">
         <f>D3*E3</f>
-        <v>1098.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43451</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>1105.94</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1105.94</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12">
+        <v>43555</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>1559</v>
-      </c>
-      <c r="D4" s="3">
-        <f>C4-C3</f>
-        <v>206</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="13">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="13">
+        <v>219</v>
+      </c>
+      <c r="E4" s="14">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="14">
         <f>D4*E4</f>
-        <v>927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>43506</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>1000.83</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1000.83</v>
+      </c>
+      <c r="H4" s="16">
+        <v>985.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12">
+        <v>43642</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
-        <v>1801</v>
-      </c>
-      <c r="D5" s="3">
-        <f>C5-C4</f>
-        <v>242</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="C5" s="13">
+        <v>2135</v>
+      </c>
+      <c r="D5" s="13">
+        <v>115</v>
+      </c>
+      <c r="E5" s="14">
         <v>4.57</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="14">
         <f>D5*E5</f>
-        <v>1105.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>43555</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>525.55000000000007</v>
+      </c>
+      <c r="G5" s="16">
+        <v>525.54999999999995</v>
+      </c>
+      <c r="H5" s="16">
+        <v>525.54999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12">
+        <v>43752</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="3">
-        <v>219</v>
-      </c>
-      <c r="E7" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C6" s="13">
+        <v>2266</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(C6,-C5)</f>
+        <v>131</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="14">
+        <f>D6*E6</f>
+        <v>588.19000000000005</v>
+      </c>
+      <c r="G6" s="16">
+        <v>588.19000000000005</v>
+      </c>
+      <c r="H6" s="16">
+        <v>630.94000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2702</v>
+      </c>
+      <c r="D7" s="13">
+        <f>SUM(C7,-C6)</f>
+        <v>436</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="14">
         <f>D7*E7</f>
-        <v>1000.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="20" t="s">
+        <v>1957.64</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1957.64</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>43642</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2135</v>
-      </c>
-      <c r="D9" s="3">
-        <v>115</v>
-      </c>
-      <c r="E9" s="22">
-        <v>4.57</v>
-      </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>525.55000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43752</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2266</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C9)</f>
-        <v>131</v>
-      </c>
-      <c r="E10" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>588.19000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>43851</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2702</v>
-      </c>
-      <c r="D11" s="3">
-        <f>SUM(C11,-C10)</f>
-        <v>436</v>
-      </c>
-      <c r="E11" s="22">
-        <v>4.49</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>1957.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="G8" s="16">
+        <f>SUM(G3:G7)</f>
+        <v>5178.1499999999996</v>
+      </c>
+      <c r="H8" s="16">
+        <f>SUM(H3:H7)</f>
+        <v>5190.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <f>SUM(H8,-G8)</f>
+        <v>12.840000000000146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -856,12 +733,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,12 +747,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -49,16 +49,22 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач пени за 154 дн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +89,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -138,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,6 +196,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -236,7 +269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +336,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -477,17 +512,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
@@ -502,7 +537,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -528,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>43451</v>
       </c>
@@ -544,7 +579,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>43506</v>
       </c>
@@ -572,7 +607,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43555</v>
       </c>
@@ -599,7 +634,7 @@
         <v>985.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43642</v>
       </c>
@@ -626,7 +661,7 @@
         <v>525.54999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43752</v>
       </c>
@@ -654,7 +689,7 @@
         <v>630.94000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43851</v>
       </c>
@@ -682,63 +717,117 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44007</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>3592</v>
+      </c>
+      <c r="D8" s="13">
+        <f>SUM(C8,-C7)</f>
+        <v>890</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="14">
+        <f>D8*E8</f>
+        <v>3996.1000000000004</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3996.1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4067.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>44007</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>463.67</v>
+      </c>
+      <c r="G9" s="21">
+        <v>463.67</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="16">
-        <f>SUM(G3:G7)</f>
-        <v>5178.1499999999996</v>
-      </c>
-      <c r="H8" s="16">
-        <f>SUM(H3:H7)</f>
-        <v>5190.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5" t="s">
+      <c r="G10" s="16">
+        <f>SUM(G3:G9)</f>
+        <v>9637.92</v>
+      </c>
+      <c r="H10" s="16">
+        <f>SUM(H3:H9)</f>
+        <v>9258.2900000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f>SUM(H8,-G8)</f>
-        <v>12.840000000000146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="21">
+        <f>SUM(H10,-G10)</f>
+        <v>-379.6299999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -747,12 +836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>нач пени за 154 дн</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,7 @@
         <v>4.57</v>
       </c>
       <c r="F3" s="14">
-        <f>D3*E3</f>
+        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>1105.94</v>
       </c>
       <c r="G3" s="16">
@@ -624,7 +627,7 @@
         <v>4.57</v>
       </c>
       <c r="F4" s="14">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>1000.83</v>
       </c>
       <c r="G4" s="16">
@@ -651,7 +654,7 @@
         <v>4.57</v>
       </c>
       <c r="F5" s="14">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>525.55000000000007</v>
       </c>
       <c r="G5" s="16">
@@ -679,7 +682,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="14">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>588.19000000000005</v>
       </c>
       <c r="G6" s="16">
@@ -707,7 +710,7 @@
         <v>4.49</v>
       </c>
       <c r="F7" s="14">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>1957.64</v>
       </c>
       <c r="G7" s="16">
@@ -735,7 +738,7 @@
         <v>4.49</v>
       </c>
       <c r="F8" s="14">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>3996.1000000000004</v>
       </c>
       <c r="G8" s="16">
@@ -772,47 +775,101 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="12">
+        <v>44140</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>4039</v>
+      </c>
+      <c r="D10" s="13">
+        <f>SUM(C10,-C8)</f>
+        <v>447</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ref="F10" si="1">D10*E10</f>
+        <v>2105.37</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2105.37</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2209.7800000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44140</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>463.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="16">
-        <f>SUM(G3:G9)</f>
-        <v>9637.92</v>
-      </c>
-      <c r="H10" s="16">
-        <f>SUM(H3:H9)</f>
-        <v>9258.2900000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="5" t="s">
+      <c r="G12" s="16">
+        <f>SUM(G3:G11)</f>
+        <v>11743.29</v>
+      </c>
+      <c r="H12" s="16">
+        <f>SUM(H3:H11)</f>
+        <v>11931.740000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="21">
-        <f>SUM(H10,-G10)</f>
-        <v>-379.6299999999992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="21">
+        <f>SUM(H12,-G12)</f>
+        <v>188.45000000000073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,64 +611,157 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>14322.81</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4">
+        <v>44265</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6657.09</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4">
+        <v>44300</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3468.93</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -677,7 +770,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -691,20 +784,54 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,24 +764,55 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="4">
+        <v>44341</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="D14" s="3">
+        <v>116</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>546.36</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>681.51</v>
+      </c>
+      <c r="H14" s="8">
+        <v>681.51</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3052</v>
+      </c>
+      <c r="D15" s="3">
+        <v>53</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>135.14999999999998</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,24 +815,57 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="4">
+        <v>44372</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6100</v>
+      </c>
+      <c r="D16" s="3">
+        <f>SUM(C16,-C14)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>614</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3052</v>
+      </c>
+      <c r="D17" s="3">
+        <f>SUM(C17,-C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,14 +868,57 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4">
+        <v>44420</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>782.97</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3052</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -884,8 +927,8 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -894,8 +937,28 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H16:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,44 +921,117 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4">
+        <v>44467</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6476</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C18)</f>
+        <v>376</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>1864.96</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>2299.12</v>
+      </c>
+      <c r="H20" s="8">
+        <v>787.08</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3214</v>
+      </c>
+      <c r="D21" s="3">
+        <f>SUM(C21,-C19)</f>
+        <v>162</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>434.16</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/153ee.xlsx
+++ b/sputnik/personal/ee/153ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\31.10.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -140,6 +148,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -423,7 +437,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H16:H20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,26 +625,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <v>44235</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.71</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="12">
         <f t="shared" ref="F8:F9" si="2">D8*E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12">
         <f>SUM(F8,F9)</f>
         <v>0</v>
       </c>
@@ -639,49 +653,49 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <v>44265</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <v>4.71</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="12">
         <f t="shared" ref="F10:F11" si="3">D10*E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="12">
         <f>SUM(F10,F11)</f>
         <v>0</v>
       </c>
@@ -690,49 +704,49 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="9">
         <v>44300</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
         <v>4.71</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="12">
         <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
         <v>0</v>
       </c>
@@ -741,24 +755,24 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="C13" s="11">
+        <v>0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="8">
         <v>0</v>
       </c>
@@ -815,27 +829,27 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="9">
         <v>44372</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <v>6100</v>
       </c>
-      <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="11">
+        <f t="shared" ref="D16:D23" si="6">SUM(C16,-C14)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
         <v>4.71</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
         <f>SUM(F16,F17)</f>
         <v>0</v>
       </c>
@@ -844,51 +858,51 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>3052</v>
       </c>
-      <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44420</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>6100</v>
+      </c>
+      <c r="D18" s="11">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>44420</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="E18" s="11">
         <v>4.96</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <f>SUM(F18,F19)</f>
         <v>0</v>
       </c>
@@ -905,14 +919,14 @@
         <v>3052</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>2.68</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G19" s="8"/>
@@ -931,14 +945,14 @@
         <v>6476</v>
       </c>
       <c r="D20" s="3">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="E20" s="3">
         <v>4.96</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
         <v>1864.96</v>
       </c>
       <c r="G20" s="8">
@@ -958,14 +972,14 @@
         <v>3214</v>
       </c>
       <c r="D21" s="3">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="E21" s="3">
         <v>2.68</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>434.16</v>
       </c>
       <c r="G21" s="8"/>
@@ -974,24 +988,57 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A22" s="4">
+        <v>44503</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6718</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="6"/>
+        <v>242</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>1200.32</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>1529.96</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1453.47</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3337</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="10"/>
+        <v>329.64000000000004</v>
+      </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -1000,8 +1047,14 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3">
+        <f>SUM(G2:G23)</f>
+        <v>17999.22</v>
+      </c>
+      <c r="H24" s="3">
+        <f>SUM(H2:H23)</f>
+        <v>42359.900000000009</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
